--- a/document/用户导入成果模板.xlsx
+++ b/document/用户导入成果模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qin.xc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gowork\src\merit\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="162">
   <si>
     <t>SL1851</t>
   </si>
@@ -43,9 +43,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>刘婵玉</t>
-  </si>
-  <si>
     <t>SL1852</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>庞治星</t>
-  </si>
-  <si>
     <t>SL1853</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>陈小云</t>
-  </si>
-  <si>
     <t>SL1854</t>
   </si>
   <si>
@@ -103,12 +94,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>姚广亮</t>
-  </si>
-  <si>
-    <t>熊俊华</t>
-  </si>
-  <si>
     <t>SL1855</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>李阳</t>
-  </si>
-  <si>
     <t>SL1856</t>
   </si>
   <si>
@@ -160,9 +142,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>朱维花</t>
-  </si>
-  <si>
     <t>SL1858</t>
   </si>
   <si>
@@ -180,9 +159,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>朱方敏</t>
-  </si>
-  <si>
     <t>SL1859</t>
   </si>
   <si>
@@ -200,12 +176,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>刘荆辉</t>
-  </si>
-  <si>
-    <t>赖瑞山</t>
-  </si>
-  <si>
     <t>SL1860</t>
   </si>
   <si>
@@ -301,10 +271,6 @@
   <si>
     <t>状态(仅管理员导入有效)</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>周理想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SL1861</t>
@@ -343,14 +309,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>蔡碧红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张武</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>可以直接发起校核</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -367,10 +325,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>朱方敏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>可以跳过一级，出差需要项目负责人或主任进行确认</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -658,6 +612,32 @@
   <si>
     <t>2、短时间内可能存在不平衡（工日、技术含量等），但从长远统计学角度，</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦晓川8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦晓川9</t>
+  </si>
+  <si>
+    <t>秦晓川10</t>
+  </si>
+  <si>
+    <t>秦晓川1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦晓川8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦晓川8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入成果表请单独做一个表格，并且只有一个标签页中有数据，无关的标签页请清空。程序会循环所有标签页。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -935,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,22 +939,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
@@ -1004,12 +972,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,9 +992,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,6 +999,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1324,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1337,78 +1299,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="12">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="L1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="M1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="N1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="O1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="P1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="Q1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="R1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="V1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="W1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="26">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1421,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="str">
         <f t="shared" ref="F2:F11" si="0">B2  &amp;"-" &amp; X2 &amp; "-" &amp; Y2</f>
@@ -1437,14 +1399,14 @@
       <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>5</v>
+      <c r="K2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
@@ -1465,7 +1427,7 @@
       <c r="V2" s="9">
         <v>42558</v>
       </c>
-      <c r="W2" s="27">
+      <c r="W2" s="23">
         <v>1</v>
       </c>
       <c r="X2" s="1">
@@ -1476,42 +1438,44 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="26">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SL1852-154-70</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="12"/>
+      <c r="K3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="8"/>
@@ -1531,7 +1495,7 @@
       <c r="V3" s="9">
         <v>42557</v>
       </c>
-      <c r="W3" s="27">
+      <c r="W3" s="23">
         <v>2</v>
       </c>
       <c r="X3" s="1">
@@ -1542,42 +1506,46 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="26">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SL1853-155-71</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6" t="s">
-        <v>17</v>
+      <c r="K4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="8"/>
@@ -1599,7 +1567,7 @@
       <c r="V4" s="9">
         <v>42556</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="23">
         <v>3</v>
       </c>
       <c r="X4" s="1">
@@ -1610,46 +1578,46 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="26">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SL1854-156-72</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>24</v>
+      <c r="K5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="8"/>
@@ -1671,7 +1639,7 @@
       <c r="V5" s="9">
         <v>42555</v>
       </c>
-      <c r="W5" s="27">
+      <c r="W5" s="23">
         <v>4</v>
       </c>
       <c r="X5" s="1">
@@ -1682,43 +1650,43 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="26">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SL1855-157-73</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>30</v>
+      <c r="K6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1739,7 +1707,7 @@
       <c r="V6" s="9">
         <v>42554</v>
       </c>
-      <c r="W6" s="27">
+      <c r="W6" s="23">
         <v>5</v>
       </c>
       <c r="X6" s="1">
@@ -1750,59 +1718,59 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="26">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>34</v>
+        <v>81</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="5">
         <v>1</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>96</v>
+      <c r="K7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="P7" s="8"/>
-      <c r="Q7" s="22">
-        <v>1</v>
-      </c>
-      <c r="R7" s="22">
+      <c r="Q7" s="18">
+        <v>1</v>
+      </c>
+      <c r="R7" s="18">
         <v>1</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="21">
+      <c r="V7" s="17">
         <v>42635</v>
       </c>
-      <c r="W7" s="27">
+      <c r="W7" s="23">
         <v>1</v>
       </c>
       <c r="X7" s="1">
@@ -1813,49 +1781,45 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="26">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SL1857-159-75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>91</v>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8">
@@ -1876,7 +1840,7 @@
       <c r="V8" s="9">
         <v>42552</v>
       </c>
-      <c r="W8" s="27">
+      <c r="W8" s="23">
         <v>2</v>
       </c>
       <c r="X8" s="1">
@@ -1887,42 +1851,46 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="26">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SL1858-160-76</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6" t="s">
-        <v>46</v>
+      <c r="K9" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="8"/>
@@ -1940,7 +1908,7 @@
       <c r="V9" s="9">
         <v>42553</v>
       </c>
-      <c r="W9" s="27">
+      <c r="W9" s="23">
         <v>3</v>
       </c>
       <c r="X9" s="1">
@@ -1951,44 +1919,46 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="26">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SL1859-161-77</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>53</v>
+      <c r="K10" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="8"/>
@@ -2008,7 +1978,7 @@
       <c r="V10" s="9">
         <v>42554</v>
       </c>
-      <c r="W10" s="27">
+      <c r="W10" s="23">
         <v>4</v>
       </c>
       <c r="X10" s="1">
@@ -2019,47 +1989,47 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="26">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SL1860-162-78</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>87</v>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="2">
@@ -2080,7 +2050,7 @@
       <c r="V11" s="9">
         <v>42555</v>
       </c>
-      <c r="W11" s="27">
+      <c r="W11" s="23">
         <v>5</v>
       </c>
       <c r="X11" s="1">
@@ -2091,43 +2061,43 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="26">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" ref="F12" si="1">B12  &amp;"-" &amp; X12 &amp; "-" &amp; Y12</f>
         <v>SL1861-162-78</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="5">
         <v>1</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>88</v>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="2">
@@ -2148,7 +2118,7 @@
       <c r="V12" s="9">
         <v>42555</v>
       </c>
-      <c r="W12" s="27">
+      <c r="W12" s="23">
         <v>5</v>
       </c>
       <c r="X12" s="1">
@@ -2159,64 +2129,68 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A13" s="28">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="31" t="str">
+      <c r="F13" s="27" t="str">
         <f t="shared" ref="F13" si="2">B13  &amp;"-" &amp; X13 &amp; "-" &amp; Y13</f>
         <v>SL1862-162-78</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="33">
-        <v>1</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="29">
-        <v>1</v>
-      </c>
-      <c r="R13" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="S13" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="T13" s="30">
+      <c r="G13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25">
+        <v>1</v>
+      </c>
+      <c r="R13" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="S13" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="T13" s="26">
         <v>0.1</v>
       </c>
-      <c r="U13" s="30">
+      <c r="U13" s="26">
         <v>0.1</v>
       </c>
-      <c r="V13" s="38">
+      <c r="V13" s="32">
         <v>42555</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="33">
         <v>5</v>
       </c>
       <c r="X13" s="1">
@@ -2227,554 +2201,559 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="H15" s="20" t="s">
-        <v>92</v>
+      <c r="H15" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="H16" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="H17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="54">
+      <c r="B24" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="81">
+      <c r="B25" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="40" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="39">
+        <v>1</v>
+      </c>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="43"/>
+      <c r="C32" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="39">
+        <v>1</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="43"/>
+      <c r="C33" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="41" t="s">
+      <c r="E33" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="39">
+        <v>1</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="43"/>
+      <c r="C34" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="39">
+        <v>1</v>
+      </c>
+      <c r="F34" s="39">
+        <v>1</v>
+      </c>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="43"/>
+      <c r="C35" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="39">
+        <v>1</v>
+      </c>
+      <c r="F35" s="39">
+        <v>1</v>
+      </c>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="39">
+        <v>1</v>
+      </c>
+      <c r="F36" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="E38" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="40">
+        <v>1</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="43"/>
+      <c r="C42" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="39">
+        <v>1</v>
+      </c>
+      <c r="F42" s="40">
+        <v>1</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="43"/>
+      <c r="C43" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="39">
+        <v>1</v>
+      </c>
+      <c r="F43" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="39">
+        <v>1</v>
+      </c>
+      <c r="F44" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="39">
+        <v>1</v>
+      </c>
+      <c r="F45" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="39">
+        <v>1</v>
+      </c>
+      <c r="F46" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="C47" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="39">
+        <v>1</v>
+      </c>
+      <c r="F47" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="C48" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="D48" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="39">
+        <v>1</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="41" t="s">
+    <row r="49" spans="2:7">
+      <c r="B49" s="40"/>
+      <c r="C49" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="D23" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="E23" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="42">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="54">
-      <c r="B24" s="43" t="s">
+      <c r="D49" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="39">
+        <v>1</v>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="D24" s="42" t="s">
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="40"/>
+      <c r="C50" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="D50" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="39">
+        <v>1</v>
+      </c>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="42">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="81">
-      <c r="B25" s="43" t="s">
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="40"/>
+      <c r="C51" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="D25" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="42">
-        <v>0.05</v>
-      </c>
-      <c r="F25" s="42">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="40" t="s">
+      <c r="D51" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="39">
+        <v>1</v>
+      </c>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="40" t="s">
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="34"/>
+      <c r="C52" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="41" t="s">
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="34"/>
+      <c r="C53" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="46">
-        <v>1</v>
-      </c>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="45"/>
-      <c r="C32" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="46">
-        <v>1</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="45"/>
-      <c r="C33" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="46">
-        <v>1</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="45"/>
-      <c r="C34" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="46">
-        <v>1</v>
-      </c>
-      <c r="F34" s="46">
-        <v>1</v>
-      </c>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="45"/>
-      <c r="C35" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="46">
-        <v>1</v>
-      </c>
-      <c r="F35" s="46">
-        <v>1</v>
-      </c>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="46">
-        <v>1</v>
-      </c>
-      <c r="F36" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="F37" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="46">
-        <v>1</v>
-      </c>
-      <c r="F39" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="G40" s="41"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="F41" s="47">
-        <v>1</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="45"/>
-      <c r="C42" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="46">
-        <v>1</v>
-      </c>
-      <c r="F42" s="47">
-        <v>1</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="45"/>
-      <c r="C43" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="46">
-        <v>1</v>
-      </c>
-      <c r="F43" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="46">
-        <v>1</v>
-      </c>
-      <c r="F44" s="47">
-        <v>0.4</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="46">
-        <v>1</v>
-      </c>
-      <c r="F45" s="47">
-        <v>0.4</v>
-      </c>
-      <c r="G45" s="41"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="47">
-        <v>0.4</v>
-      </c>
-      <c r="G46" s="41"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" s="46">
-        <v>1</v>
-      </c>
-      <c r="F47" s="47">
-        <v>0.4</v>
-      </c>
-      <c r="G47" s="41"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" s="46">
-        <v>1</v>
-      </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="47"/>
-      <c r="C49" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="46">
-        <v>1</v>
-      </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="47"/>
-      <c r="C50" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="46">
-        <v>1</v>
-      </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="47"/>
-      <c r="C51" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="46">
-        <v>1</v>
-      </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="40"/>
-      <c r="C52" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="40"/>
-      <c r="C53" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2783,5 +2762,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>